--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Tgfbr3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.79985513967209</v>
+        <v>1.828226333333333</v>
       </c>
       <c r="H2">
-        <v>1.79985513967209</v>
+        <v>5.484679</v>
       </c>
       <c r="I2">
-        <v>0.02330470212011326</v>
+        <v>0.02222218683751419</v>
       </c>
       <c r="J2">
-        <v>0.02330470212011326</v>
+        <v>0.02377799715221334</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.0868983542685</v>
+        <v>24.43316566666667</v>
       </c>
       <c r="N2">
-        <v>19.0868983542685</v>
+        <v>73.299497</v>
       </c>
       <c r="O2">
-        <v>0.2106170354463769</v>
+        <v>0.2327873509383368</v>
       </c>
       <c r="P2">
-        <v>0.2106170354463769</v>
+        <v>0.2542402694696193</v>
       </c>
       <c r="Q2">
-        <v>34.35365210332891</v>
+        <v>44.66935687849589</v>
       </c>
       <c r="R2">
-        <v>34.35365210332891</v>
+        <v>402.024211906463</v>
       </c>
       <c r="S2">
-        <v>0.004908367272499149</v>
+        <v>0.005173044005961705</v>
       </c>
       <c r="T2">
-        <v>0.004908367272499149</v>
+        <v>0.006045324403426562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.79985513967209</v>
+        <v>1.828226333333333</v>
       </c>
       <c r="H3">
-        <v>1.79985513967209</v>
+        <v>5.484679</v>
       </c>
       <c r="I3">
-        <v>0.02330470212011326</v>
+        <v>0.02222218683751419</v>
       </c>
       <c r="J3">
-        <v>0.02330470212011326</v>
+        <v>0.02377799715221334</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>48.2327932854128</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N3">
-        <v>48.2327932854128</v>
+        <v>161.160385</v>
       </c>
       <c r="O3">
-        <v>0.5322314681263929</v>
+        <v>0.511819325313412</v>
       </c>
       <c r="P3">
-        <v>0.5322314681263929</v>
+        <v>0.558986915152059</v>
       </c>
       <c r="Q3">
-        <v>86.81204089549171</v>
+        <v>98.21255324904612</v>
       </c>
       <c r="R3">
-        <v>86.81204089549171</v>
+        <v>883.9129792414151</v>
       </c>
       <c r="S3">
-        <v>0.01240349582363614</v>
+        <v>0.0113737446741651</v>
       </c>
       <c r="T3">
-        <v>0.01240349582363614</v>
+        <v>0.01329158927661018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.79985513967209</v>
+        <v>1.828226333333333</v>
       </c>
       <c r="H4">
-        <v>1.79985513967209</v>
+        <v>5.484679</v>
       </c>
       <c r="I4">
-        <v>0.02330470212011326</v>
+        <v>0.02222218683751419</v>
       </c>
       <c r="J4">
-        <v>0.02330470212011326</v>
+        <v>0.02377799715221334</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.100611386345226</v>
+        <v>0.1891813333333333</v>
       </c>
       <c r="N4">
-        <v>0.100611386345226</v>
+        <v>0.567544</v>
       </c>
       <c r="O4">
-        <v>0.001110210340667668</v>
+        <v>0.001802427979839308</v>
       </c>
       <c r="P4">
-        <v>0.001110210340667668</v>
+        <v>0.001968533829036584</v>
       </c>
       <c r="Q4">
-        <v>0.1810859208229894</v>
+        <v>0.3458662953751111</v>
       </c>
       <c r="R4">
-        <v>0.1810859208229894</v>
+        <v>3.112796658376</v>
       </c>
       <c r="S4">
-        <v>2.587312127992947E-05</v>
+        <v>4.005389132915237E-05</v>
       </c>
       <c r="T4">
-        <v>2.587312127992947E-05</v>
+        <v>4.680779178086754E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.79985513967209</v>
+        <v>1.828226333333333</v>
       </c>
       <c r="H5">
-        <v>1.79985513967209</v>
+        <v>5.484679</v>
       </c>
       <c r="I5">
-        <v>0.02330470212011326</v>
+        <v>0.02222218683751419</v>
       </c>
       <c r="J5">
-        <v>0.02330470212011326</v>
+        <v>0.02377799715221334</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>23.2034127328444</v>
+        <v>0.04717133333333334</v>
       </c>
       <c r="N5">
-        <v>23.2034127328444</v>
+        <v>0.141514</v>
       </c>
       <c r="O5">
-        <v>0.2560412860865626</v>
+        <v>0.0004494255831071773</v>
       </c>
       <c r="P5">
-        <v>0.2560412860865626</v>
+        <v>0.0004908431703661446</v>
       </c>
       <c r="Q5">
-        <v>41.76278166514281</v>
+        <v>0.08623987377844444</v>
       </c>
       <c r="R5">
-        <v>41.76278166514281</v>
+        <v>0.776158864006</v>
       </c>
       <c r="S5">
-        <v>0.005966965902698042</v>
+        <v>9.987219277366456E-06</v>
       </c>
       <c r="T5">
-        <v>0.005966965902698042</v>
+        <v>1.167126750714956E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>60.062829407467</v>
+        <v>1.828226333333333</v>
       </c>
       <c r="H6">
-        <v>60.062829407467</v>
+        <v>5.484679</v>
       </c>
       <c r="I6">
-        <v>0.7776994475717712</v>
+        <v>0.02222218683751419</v>
       </c>
       <c r="J6">
-        <v>0.7776994475717712</v>
+        <v>0.02377799715221334</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.0868983542685</v>
+        <v>26.569517</v>
       </c>
       <c r="N6">
-        <v>19.0868983542685</v>
+        <v>53.139034</v>
       </c>
       <c r="O6">
-        <v>0.2106170354463769</v>
+        <v>0.2531414701853045</v>
       </c>
       <c r="P6">
-        <v>0.2106170354463769</v>
+        <v>0.1843134383789191</v>
       </c>
       <c r="Q6">
-        <v>1146.413119770091</v>
+        <v>48.57509064334766</v>
       </c>
       <c r="R6">
-        <v>1146.413119770091</v>
+        <v>291.450543860086</v>
       </c>
       <c r="S6">
-        <v>0.1637967521158515</v>
+        <v>0.005625357046780865</v>
       </c>
       <c r="T6">
-        <v>0.1637967521158515</v>
+        <v>0.004382604412888587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.062829407467</v>
+        <v>63.311587</v>
       </c>
       <c r="H7">
-        <v>60.062829407467</v>
+        <v>189.934761</v>
       </c>
       <c r="I7">
-        <v>0.7776994475717712</v>
+        <v>0.769555656015713</v>
       </c>
       <c r="J7">
-        <v>0.7776994475717712</v>
+        <v>0.8234334600373736</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.2327932854128</v>
+        <v>24.43316566666667</v>
       </c>
       <c r="N7">
-        <v>48.2327932854128</v>
+        <v>73.299497</v>
       </c>
       <c r="O7">
-        <v>0.5322314681263929</v>
+        <v>0.2327873509383368</v>
       </c>
       <c r="P7">
-        <v>0.5322314681263929</v>
+        <v>0.2542402694696193</v>
       </c>
       <c r="Q7">
-        <v>2896.998034947369</v>
+        <v>1546.90249379058</v>
       </c>
       <c r="R7">
-        <v>2896.998034947369</v>
+        <v>13922.12244411522</v>
       </c>
       <c r="S7">
-        <v>0.4139161187422085</v>
+        <v>0.1791428225635117</v>
       </c>
       <c r="T7">
-        <v>0.4139161187422085</v>
+        <v>0.2093499447702029</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.062829407467</v>
+        <v>63.311587</v>
       </c>
       <c r="H8">
-        <v>60.062829407467</v>
+        <v>189.934761</v>
       </c>
       <c r="I8">
-        <v>0.7776994475717712</v>
+        <v>0.769555656015713</v>
       </c>
       <c r="J8">
-        <v>0.7776994475717712</v>
+        <v>0.8234334600373736</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.100611386345226</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N8">
-        <v>0.100611386345226</v>
+        <v>161.160385</v>
       </c>
       <c r="O8">
-        <v>0.001110210340667668</v>
+        <v>0.511819325313412</v>
       </c>
       <c r="P8">
-        <v>0.001110210340667668</v>
+        <v>0.558986915152059</v>
       </c>
       <c r="Q8">
-        <v>6.043004534502064</v>
+        <v>3401.106578626999</v>
       </c>
       <c r="R8">
-        <v>6.043004534502064</v>
+        <v>30609.95920764299</v>
       </c>
       <c r="S8">
-        <v>0.0008634099686257134</v>
+        <v>0.3938734566530824</v>
       </c>
       <c r="T8">
-        <v>0.0008634099686257134</v>
+        <v>0.4602885296592777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.062829407467</v>
+        <v>63.311587</v>
       </c>
       <c r="H9">
-        <v>60.062829407467</v>
+        <v>189.934761</v>
       </c>
       <c r="I9">
-        <v>0.7776994475717712</v>
+        <v>0.769555656015713</v>
       </c>
       <c r="J9">
-        <v>0.7776994475717712</v>
+        <v>0.8234334600373736</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.2034127328444</v>
+        <v>0.1891813333333333</v>
       </c>
       <c r="N9">
-        <v>23.2034127328444</v>
+        <v>0.567544</v>
       </c>
       <c r="O9">
-        <v>0.2560412860865626</v>
+        <v>0.001802427979839308</v>
       </c>
       <c r="P9">
-        <v>0.2560412860865626</v>
+        <v>0.001968533829036584</v>
       </c>
       <c r="Q9">
-        <v>1393.662620643881</v>
+        <v>11.97737044410933</v>
       </c>
       <c r="R9">
-        <v>1393.662620643881</v>
+        <v>107.796333996984</v>
       </c>
       <c r="S9">
-        <v>0.1991231667450855</v>
+        <v>0.001387068646446315</v>
       </c>
       <c r="T9">
-        <v>0.1991231667450855</v>
+        <v>0.001620956622044214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.3687312588031</v>
+        <v>63.311587</v>
       </c>
       <c r="H10">
-        <v>15.3687312588031</v>
+        <v>189.934761</v>
       </c>
       <c r="I10">
-        <v>0.1989958503081155</v>
+        <v>0.769555656015713</v>
       </c>
       <c r="J10">
-        <v>0.1989958503081155</v>
+        <v>0.8234334600373736</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>19.0868983542685</v>
+        <v>0.04717133333333334</v>
       </c>
       <c r="N10">
-        <v>19.0868983542685</v>
+        <v>0.141514</v>
       </c>
       <c r="O10">
-        <v>0.2106170354463769</v>
+        <v>0.0004494255831071773</v>
       </c>
       <c r="P10">
-        <v>0.2106170354463769</v>
+        <v>0.0004908431703661446</v>
       </c>
       <c r="Q10">
-        <v>293.3414113708437</v>
+        <v>2.986491974239334</v>
       </c>
       <c r="R10">
-        <v>293.3414113708437</v>
+        <v>26.878427768154</v>
       </c>
       <c r="S10">
-        <v>0.04191191605802628</v>
+        <v>0.0003458579994382881</v>
       </c>
       <c r="T10">
-        <v>0.04191191605802628</v>
+        <v>0.0004041766901103085</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.3687312588031</v>
+        <v>63.311587</v>
       </c>
       <c r="H11">
-        <v>15.3687312588031</v>
+        <v>189.934761</v>
       </c>
       <c r="I11">
-        <v>0.1989958503081155</v>
+        <v>0.769555656015713</v>
       </c>
       <c r="J11">
-        <v>0.1989958503081155</v>
+        <v>0.8234334600373736</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>48.2327932854128</v>
+        <v>26.569517</v>
       </c>
       <c r="N11">
-        <v>48.2327932854128</v>
+        <v>53.139034</v>
       </c>
       <c r="O11">
-        <v>0.5322314681263929</v>
+        <v>0.2531414701853045</v>
       </c>
       <c r="P11">
-        <v>0.5322314681263929</v>
+        <v>0.1843134383789191</v>
       </c>
       <c r="Q11">
-        <v>741.276837864912</v>
+        <v>1682.158287093479</v>
       </c>
       <c r="R11">
-        <v>741.276837864912</v>
+        <v>10092.94972256088</v>
       </c>
       <c r="S11">
-        <v>0.1059118535605482</v>
+        <v>0.194806450153234</v>
       </c>
       <c r="T11">
-        <v>0.1059118535605482</v>
+        <v>0.1517698522957386</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>15.3687312588031</v>
+        <v>0.4007523333333333</v>
       </c>
       <c r="H12">
-        <v>15.3687312588031</v>
+        <v>1.202257</v>
       </c>
       <c r="I12">
-        <v>0.1989958503081155</v>
+        <v>0.004871165601616667</v>
       </c>
       <c r="J12">
-        <v>0.1989958503081155</v>
+        <v>0.005212203580597617</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.100611386345226</v>
+        <v>24.43316566666667</v>
       </c>
       <c r="N12">
-        <v>0.100611386345226</v>
+        <v>73.299497</v>
       </c>
       <c r="O12">
-        <v>0.001110210340667668</v>
+        <v>0.2327873509383368</v>
       </c>
       <c r="P12">
-        <v>0.001110210340667668</v>
+        <v>0.2542402694696193</v>
       </c>
       <c r="Q12">
-        <v>1.54626935831539</v>
+        <v>9.791648151636556</v>
       </c>
       <c r="R12">
-        <v>1.54626935831539</v>
+        <v>88.124833364729</v>
       </c>
       <c r="S12">
-        <v>0.0002209272507620252</v>
+        <v>0.001133945736382294</v>
       </c>
       <c r="T12">
-        <v>0.0002209272507620252</v>
+        <v>0.001325152042861653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4007523333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.202257</v>
+      </c>
+      <c r="I13">
+        <v>0.004871165601616667</v>
+      </c>
+      <c r="J13">
+        <v>0.005212203580597617</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>53.72012833333334</v>
+      </c>
+      <c r="N13">
+        <v>161.160385</v>
+      </c>
+      <c r="O13">
+        <v>0.511819325313412</v>
+      </c>
+      <c r="P13">
+        <v>0.558986915152059</v>
+      </c>
+      <c r="Q13">
+        <v>21.52846677654945</v>
+      </c>
+      <c r="R13">
+        <v>193.756200988945</v>
+      </c>
+      <c r="S13">
+        <v>0.002493156691709343</v>
+      </c>
+      <c r="T13">
+        <v>0.002913553600662778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4007523333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.202257</v>
+      </c>
+      <c r="I14">
+        <v>0.004871165601616667</v>
+      </c>
+      <c r="J14">
+        <v>0.005212203580597617</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1891813333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.567544</v>
+      </c>
+      <c r="O14">
+        <v>0.001802427979839308</v>
+      </c>
+      <c r="P14">
+        <v>0.001968533829036584</v>
+      </c>
+      <c r="Q14">
+        <v>0.07581486075644445</v>
+      </c>
+      <c r="R14">
+        <v>0.682333746808</v>
+      </c>
+      <c r="S14">
+        <v>8.779925174784656E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.026039907223202E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.4007523333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.202257</v>
+      </c>
+      <c r="I15">
+        <v>0.004871165601616667</v>
+      </c>
+      <c r="J15">
+        <v>0.005212203580597617</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.04717133333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.141514</v>
+      </c>
+      <c r="O15">
+        <v>0.0004494255831071773</v>
+      </c>
+      <c r="P15">
+        <v>0.0004908431703661446</v>
+      </c>
+      <c r="Q15">
+        <v>0.01890402189977778</v>
+      </c>
+      <c r="R15">
+        <v>0.170136197098</v>
+      </c>
+      <c r="S15">
+        <v>2.189226440918195E-06</v>
+      </c>
+      <c r="T15">
+        <v>2.558374530094305E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4007523333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.202257</v>
+      </c>
+      <c r="I16">
+        <v>0.004871165601616667</v>
+      </c>
+      <c r="J16">
+        <v>0.005212203580597617</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>26.569517</v>
+      </c>
+      <c r="N16">
+        <v>53.139034</v>
+      </c>
+      <c r="O16">
+        <v>0.2531414701853045</v>
+      </c>
+      <c r="P16">
+        <v>0.1843134383789191</v>
+      </c>
+      <c r="Q16">
+        <v>10.64779593328967</v>
+      </c>
+      <c r="R16">
+        <v>63.88677559973799</v>
+      </c>
+      <c r="S16">
+        <v>0.001233094021909326</v>
+      </c>
+      <c r="T16">
+        <v>0.0009606791634708602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.5807443333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.742233</v>
+      </c>
+      <c r="I17">
+        <v>0.00705897778894314</v>
+      </c>
+      <c r="J17">
+        <v>0.007553187946366982</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>24.43316566666667</v>
+      </c>
+      <c r="N17">
+        <v>73.299497</v>
+      </c>
+      <c r="O17">
+        <v>0.2327873509383368</v>
+      </c>
+      <c r="P17">
+        <v>0.2542402694696193</v>
+      </c>
+      <c r="Q17">
+        <v>14.18942250631122</v>
+      </c>
+      <c r="R17">
+        <v>127.704802556801</v>
+      </c>
+      <c r="S17">
+        <v>0.001643240739820631</v>
+      </c>
+      <c r="T17">
+        <v>0.001920324538839022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.5807443333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.742233</v>
+      </c>
+      <c r="I18">
+        <v>0.00705897778894314</v>
+      </c>
+      <c r="J18">
+        <v>0.007553187946366982</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>53.72012833333334</v>
+      </c>
+      <c r="N18">
+        <v>161.160385</v>
+      </c>
+      <c r="O18">
+        <v>0.511819325313412</v>
+      </c>
+      <c r="P18">
+        <v>0.558986915152059</v>
+      </c>
+      <c r="Q18">
+        <v>31.19766011552279</v>
+      </c>
+      <c r="R18">
+        <v>280.778941039705</v>
+      </c>
+      <c r="S18">
+        <v>0.003612921249339239</v>
+      </c>
+      <c r="T18">
+        <v>0.004222133229703396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>15.3687312588031</v>
-      </c>
-      <c r="H13">
-        <v>15.3687312588031</v>
-      </c>
-      <c r="I13">
-        <v>0.1989958503081155</v>
-      </c>
-      <c r="J13">
-        <v>0.1989958503081155</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>23.2034127328444</v>
-      </c>
-      <c r="N13">
-        <v>23.2034127328444</v>
-      </c>
-      <c r="O13">
-        <v>0.2560412860865626</v>
-      </c>
-      <c r="P13">
-        <v>0.2560412860865626</v>
-      </c>
-      <c r="Q13">
-        <v>356.6070145781756</v>
-      </c>
-      <c r="R13">
-        <v>356.6070145781756</v>
-      </c>
-      <c r="S13">
-        <v>0.05095115343877899</v>
-      </c>
-      <c r="T13">
-        <v>0.05095115343877899</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.5807443333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.742233</v>
+      </c>
+      <c r="I19">
+        <v>0.00705897778894314</v>
+      </c>
+      <c r="J19">
+        <v>0.007553187946366982</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1891813333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.567544</v>
+      </c>
+      <c r="O19">
+        <v>0.001802427979839308</v>
+      </c>
+      <c r="P19">
+        <v>0.001968533829036584</v>
+      </c>
+      <c r="Q19">
+        <v>0.1098659873057778</v>
+      </c>
+      <c r="R19">
+        <v>0.9887938857520001</v>
+      </c>
+      <c r="S19">
+        <v>1.272329907585533E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.486870598949477E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.5807443333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.742233</v>
+      </c>
+      <c r="I20">
+        <v>0.00705897778894314</v>
+      </c>
+      <c r="J20">
+        <v>0.007553187946366982</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.04717133333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.141514</v>
+      </c>
+      <c r="O20">
+        <v>0.0004494255831071773</v>
+      </c>
+      <c r="P20">
+        <v>0.0004908431703661446</v>
+      </c>
+      <c r="Q20">
+        <v>0.02739448452911112</v>
+      </c>
+      <c r="R20">
+        <v>0.246550360762</v>
+      </c>
+      <c r="S20">
+        <v>3.172485208936384E-06</v>
+      </c>
+      <c r="T20">
+        <v>3.707430717966119E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.5807443333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.742233</v>
+      </c>
+      <c r="I21">
+        <v>0.00705897778894314</v>
+      </c>
+      <c r="J21">
+        <v>0.007553187946366982</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.569517</v>
+      </c>
+      <c r="N21">
+        <v>53.139034</v>
+      </c>
+      <c r="O21">
+        <v>0.2531414701853045</v>
+      </c>
+      <c r="P21">
+        <v>0.1843134383789191</v>
+      </c>
+      <c r="Q21">
+        <v>15.43009643715367</v>
+      </c>
+      <c r="R21">
+        <v>92.580578622922</v>
+      </c>
+      <c r="S21">
+        <v>0.001786920015498476</v>
+      </c>
+      <c r="T21">
+        <v>0.001392154041117105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>16.149006</v>
+      </c>
+      <c r="H22">
+        <v>32.298012</v>
+      </c>
+      <c r="I22">
+        <v>0.1962920137562131</v>
+      </c>
+      <c r="J22">
+        <v>0.1400231512834484</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>24.43316566666667</v>
+      </c>
+      <c r="N22">
+        <v>73.299497</v>
+      </c>
+      <c r="O22">
+        <v>0.2327873509383368</v>
+      </c>
+      <c r="P22">
+        <v>0.2542402694696193</v>
+      </c>
+      <c r="Q22">
+        <v>394.571338949994</v>
+      </c>
+      <c r="R22">
+        <v>2367.428033699964</v>
+      </c>
+      <c r="S22">
+        <v>0.04569429789266042</v>
+      </c>
+      <c r="T22">
+        <v>0.03559952371428919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>16.149006</v>
+      </c>
+      <c r="H23">
+        <v>32.298012</v>
+      </c>
+      <c r="I23">
+        <v>0.1962920137562131</v>
+      </c>
+      <c r="J23">
+        <v>0.1400231512834484</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>53.72012833333334</v>
+      </c>
+      <c r="N23">
+        <v>161.160385</v>
+      </c>
+      <c r="O23">
+        <v>0.511819325313412</v>
+      </c>
+      <c r="P23">
+        <v>0.558986915152059</v>
+      </c>
+      <c r="Q23">
+        <v>867.5266747757702</v>
+      </c>
+      <c r="R23">
+        <v>5205.16004865462</v>
+      </c>
+      <c r="S23">
+        <v>0.100466046045116</v>
+      </c>
+      <c r="T23">
+        <v>0.07827110938580488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>16.149006</v>
+      </c>
+      <c r="H24">
+        <v>32.298012</v>
+      </c>
+      <c r="I24">
+        <v>0.1962920137562131</v>
+      </c>
+      <c r="J24">
+        <v>0.1400231512834484</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1891813333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.567544</v>
+      </c>
+      <c r="O24">
+        <v>0.001802427979839308</v>
+      </c>
+      <c r="P24">
+        <v>0.001968533829036584</v>
+      </c>
+      <c r="Q24">
+        <v>3.055090487088</v>
+      </c>
+      <c r="R24">
+        <v>18.330542922528</v>
+      </c>
+      <c r="S24">
+        <v>0.0003538022178132009</v>
+      </c>
+      <c r="T24">
+        <v>0.0002756403101497756</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>16.149006</v>
+      </c>
+      <c r="H25">
+        <v>32.298012</v>
+      </c>
+      <c r="I25">
+        <v>0.1962920137562131</v>
+      </c>
+      <c r="J25">
+        <v>0.1400231512834484</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.04717133333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.141514</v>
+      </c>
+      <c r="O25">
+        <v>0.0004494255831071773</v>
+      </c>
+      <c r="P25">
+        <v>0.0004908431703661446</v>
+      </c>
+      <c r="Q25">
+        <v>0.761770145028</v>
+      </c>
+      <c r="R25">
+        <v>4.570620870168</v>
+      </c>
+      <c r="S25">
+        <v>8.821865274166815E-05</v>
+      </c>
+      <c r="T25">
+        <v>6.87294075006261E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>16.149006</v>
+      </c>
+      <c r="H26">
+        <v>32.298012</v>
+      </c>
+      <c r="I26">
+        <v>0.1962920137562131</v>
+      </c>
+      <c r="J26">
+        <v>0.1400231512834484</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>26.569517</v>
+      </c>
+      <c r="N26">
+        <v>53.139034</v>
+      </c>
+      <c r="O26">
+        <v>0.2531414701853045</v>
+      </c>
+      <c r="P26">
+        <v>0.1843134383789191</v>
+      </c>
+      <c r="Q26">
+        <v>429.071289450102</v>
+      </c>
+      <c r="R26">
+        <v>1716.285157800408</v>
+      </c>
+      <c r="S26">
+        <v>0.0496896489478818</v>
+      </c>
+      <c r="T26">
+        <v>0.02580814846570393</v>
       </c>
     </row>
   </sheetData>
